--- a/data/data_2.xlsx
+++ b/data/data_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27816"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NLP-DL\src\corpora_excel\book\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_repository\NER_Data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF42F05-88DB-4B68-839D-B668CD1A9A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689DCA91-6A1B-448A-8D2E-23E815F9C0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -876,219 +876,60 @@
     <t>BIOOOOOOOOBIOOOOOOOOOOBIOOOOOOOOOOOOOOOOBIOOOOOOOOOBIOOOOOOOOOOOOO</t>
   </si>
   <si>
-    <r>
-      <t>OOOOOOOOOOOOOOOOO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>OOOOOOOOOOOOOOOOOOOOOOOO</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>使用本方应注意四点：一是三药为散，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>大枣</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>煎汤送服；二是于清晨空腹服用，从小量开始，以免量大下多伤正，若服后下少，次日加量；三是服药得快利后，宜食糜粥以保养脾胃；四是年老体弱者慎用，孕妇忌服。</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>然肠中既结聚不散，为肿为毒，非用下法，不能解散。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用本方应注意四点：一是三药为散，大枣煎汤送服；二是于清晨空腹服用，从小量开始，以免量大下多伤正，若服后下少，次日加量；三是服药得快利后，宜食糜粥以保养脾胃；四是年老体弱者慎用，孕妇忌服。</t>
+  </si>
+  <si>
+    <t>OOOOOOOOOOOOOOOOOBIOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1097,48 +938,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1415,1436 +1220,1422 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D45" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="38.625" defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="38.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="89" style="2" customWidth="1"/>
-    <col min="4" max="4" width="133.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="38.625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="38.625" style="2"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="4" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3">
+    <row r="1" spans="1:4">
+      <c r="A1">
         <v>150</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+    <row r="2" spans="1:4">
+      <c r="A2">
         <v>153</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+    <row r="3" spans="1:4">
+      <c r="A3">
         <v>154</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="101.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+    <row r="4" spans="1:4">
+      <c r="A4">
         <v>157</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+    <row r="5" spans="1:4">
+      <c r="A5">
         <v>161</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+    <row r="6" spans="1:4">
+      <c r="A6">
         <v>164</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+    <row r="7" spans="1:4">
+      <c r="A7">
         <v>165</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+    <row r="8" spans="1:4">
+      <c r="A8">
         <v>166</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+    <row r="9" spans="1:4">
+      <c r="A9">
         <v>172</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+    <row r="10" spans="1:4">
+      <c r="A10">
         <v>178</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+    <row r="11" spans="1:4">
+      <c r="A11">
         <v>180</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+    <row r="12" spans="1:4">
+      <c r="A12">
         <v>181</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+    <row r="13" spans="1:4">
+      <c r="A13">
         <v>182</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+    <row r="14" spans="1:4">
+      <c r="A14">
         <v>183</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+    <row r="15" spans="1:4">
+      <c r="A15">
         <v>186</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+    <row r="16" spans="1:4">
+      <c r="A16">
         <v>187</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+    <row r="17" spans="1:4">
+      <c r="A17">
         <v>190</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" ht="101.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+    <row r="18" spans="1:4">
+      <c r="A18">
         <v>194</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+    <row r="19" spans="1:4">
+      <c r="A19">
         <v>197</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+    <row r="20" spans="1:4">
+      <c r="A20">
         <v>205</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+    <row r="21" spans="1:4">
+      <c r="A21">
         <v>206</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+    <row r="22" spans="1:4">
+      <c r="A22">
         <v>207</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+    <row r="23" spans="1:4">
+      <c r="A23">
         <v>208</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+    <row r="24" spans="1:4">
+      <c r="A24">
         <v>214</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+    <row r="25" spans="1:4">
+      <c r="A25">
         <v>217</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+    <row r="26" spans="1:4">
+      <c r="A26">
         <v>221</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+    <row r="27" spans="1:4">
+      <c r="A27">
         <v>222</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="1" customFormat="1" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+    <row r="28" spans="1:4">
+      <c r="A28">
         <v>223</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+    <row r="29" spans="1:4">
+      <c r="A29">
         <v>224</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+    <row r="30" spans="1:4">
+      <c r="A30">
         <v>225</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+    <row r="31" spans="1:4">
+      <c r="A31">
         <v>226</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="1" customFormat="1" ht="101.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
+    <row r="32" spans="1:4">
+      <c r="A32">
         <v>230</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
+    <row r="33" spans="1:4">
+      <c r="A33">
         <v>234</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
+    <row r="34" spans="1:4">
+      <c r="A34">
         <v>235</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
+    <row r="35" spans="1:4">
+      <c r="A35">
         <v>245</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
+    <row r="36" spans="1:4">
+      <c r="A36">
         <v>246</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
+    <row r="37" spans="1:4">
+      <c r="A37">
         <v>248</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" t="s">
         <v>107</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
+    <row r="38" spans="1:4">
+      <c r="A38">
         <v>251</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
+    <row r="39" spans="1:4">
+      <c r="A39">
         <v>252</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" t="s">
         <v>110</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
+    <row r="40" spans="1:4">
+      <c r="A40">
         <v>254</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
+    <row r="41" spans="1:4">
+      <c r="A41">
         <v>255</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" t="s">
         <v>101</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
+    <row r="42" spans="1:4">
+      <c r="A42">
         <v>258</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
+    <row r="43" spans="1:4">
+      <c r="A43">
         <v>261</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="10">
+    <row r="44" spans="1:4">
+      <c r="A44">
         <v>266</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>267</v>
+      </c>
+      <c r="B45" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>268</v>
+      </c>
+      <c r="B46" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>269</v>
+      </c>
+      <c r="B47" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>276</v>
+      </c>
+      <c r="B48" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
         <v>284</v>
       </c>
-      <c r="D44" s="10" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
+      <c r="B49" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>285</v>
+      </c>
+      <c r="B50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>286</v>
+      </c>
+      <c r="B51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>287</v>
+      </c>
+      <c r="B52" t="s">
+        <v>146</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>290</v>
+      </c>
+      <c r="B53" t="s">
+        <v>148</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>291</v>
+      </c>
+      <c r="B54" t="s">
+        <v>151</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>294</v>
+      </c>
+      <c r="B55" t="s">
+        <v>154</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>297</v>
+      </c>
+      <c r="B56" t="s">
+        <v>157</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>298</v>
+      </c>
+      <c r="B57" t="s">
+        <v>160</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>304</v>
+      </c>
+      <c r="B58" t="s">
+        <v>163</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>305</v>
+      </c>
+      <c r="B59" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>306</v>
+      </c>
+      <c r="B60" t="s">
+        <v>163</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>309</v>
+      </c>
+      <c r="B61" t="s">
+        <v>170</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>315</v>
+      </c>
+      <c r="B62" t="s">
+        <v>173</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>316</v>
+      </c>
+      <c r="B63" t="s">
+        <v>176</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>317</v>
+      </c>
+      <c r="B64" t="s">
+        <v>179</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>318</v>
+      </c>
+      <c r="B65" t="s">
+        <v>182</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>323</v>
+      </c>
+      <c r="B66" t="s">
+        <v>185</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>330</v>
+      </c>
+      <c r="B67" t="s">
+        <v>188</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>331</v>
+      </c>
+      <c r="B68" t="s">
+        <v>191</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>332</v>
+      </c>
+      <c r="B69" t="s">
+        <v>194</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>337</v>
+      </c>
+      <c r="B70" t="s">
+        <v>197</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>340</v>
+      </c>
+      <c r="B71" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>341</v>
+      </c>
+      <c r="B72" t="s">
+        <v>203</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>342</v>
+      </c>
+      <c r="B73" t="s">
+        <v>206</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>343</v>
+      </c>
+      <c r="B74" t="s">
+        <v>209</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>345</v>
+      </c>
+      <c r="B75" t="s">
+        <v>209</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>353</v>
+      </c>
+      <c r="B76" t="s">
+        <v>214</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>354</v>
+      </c>
+      <c r="B77" t="s">
+        <v>217</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>356</v>
+      </c>
+      <c r="B78" t="s">
+        <v>209</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>362</v>
+      </c>
+      <c r="B79" t="s">
+        <v>222</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>363</v>
+      </c>
+      <c r="B80" t="s">
+        <v>223</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>371</v>
+      </c>
+      <c r="B81" t="s">
+        <v>226</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>372</v>
+      </c>
+      <c r="B82" t="s">
+        <v>143</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <v>373</v>
+      </c>
+      <c r="B83" t="s">
+        <v>231</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <v>374</v>
+      </c>
+      <c r="B84" t="s">
+        <v>234</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>379</v>
+      </c>
+      <c r="B85" t="s">
+        <v>104</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86">
+        <v>389</v>
+      </c>
+      <c r="B86" t="s">
+        <v>239</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87">
+        <v>390</v>
+      </c>
+      <c r="B87" t="s">
+        <v>242</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>391</v>
+      </c>
+      <c r="B88" t="s">
+        <v>245</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>392</v>
+      </c>
+      <c r="B89" t="s">
+        <v>248</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>393</v>
+      </c>
+      <c r="B90" t="s">
+        <v>251</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91">
+        <v>396</v>
+      </c>
+      <c r="B91" t="s">
+        <v>254</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92">
+        <v>402</v>
+      </c>
+      <c r="B92" t="s">
+        <v>239</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>403</v>
+      </c>
+      <c r="B93" t="s">
+        <v>259</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>404</v>
+      </c>
+      <c r="B94" t="s">
+        <v>262</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95">
+        <v>405</v>
+      </c>
+      <c r="B95" t="s">
+        <v>239</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96">
+        <v>408</v>
+      </c>
+      <c r="B96" t="s">
         <v>267</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
+      <c r="C96" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
+      <c r="D96" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" s="1" customFormat="1" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97">
+        <v>409</v>
+      </c>
+      <c r="B97" t="s">
+        <v>270</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98">
+        <v>411</v>
+      </c>
+      <c r="B98" t="s">
+        <v>254</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99">
+        <v>414</v>
+      </c>
+      <c r="B99" t="s">
+        <v>275</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
-        <v>284</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
-        <v>285</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <v>286</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>287</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>290</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" s="1" customFormat="1" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>291</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <v>294</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>297</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>298</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>304</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" s="1" customFormat="1" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
-        <v>305</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
-        <v>306</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
-        <v>309</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
-        <v>315</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
-        <v>316</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <v>317</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" s="1" customFormat="1" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
-        <v>318</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" s="1" customFormat="1" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
-        <v>323</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
-        <v>330</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
-        <v>331</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
-        <v>332</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
-        <v>337</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
-        <v>340</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
-        <v>341</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
-        <v>342</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
-        <v>343</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" s="1" customFormat="1" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
-        <v>345</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
-        <v>353</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
-        <v>354</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
-        <v>356</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" s="1" customFormat="1" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
-        <v>362</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
-        <v>363</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
-        <v>371</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
-        <v>372</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
-        <v>373</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
-        <v>374</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
-        <v>379</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
-        <v>389</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
-        <v>390</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
-        <v>391</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" s="1" customFormat="1" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
-        <v>392</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
-        <v>393</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
-        <v>396</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
-        <v>402</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" s="1" customFormat="1" ht="121.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
-        <v>403</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" s="1" customFormat="1" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
-        <v>404</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
-        <v>405</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" s="1" customFormat="1" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
-        <v>408</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
-        <v>409</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" s="1" customFormat="1" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
-        <v>411</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
-        <v>414</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="D99" s="6" t="s">
+      <c r="D99" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="100" spans="1:4" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
+    <row r="100" spans="1:4">
+      <c r="A100">
         <v>415</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" t="s">
         <v>278</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C100" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="D100" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C102" s="11"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C103" s="12"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C104" s="13"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C102:C104"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
